--- a/Annexes/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Annexes/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robin/Desktop/Projet04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robin/Desktop/Projet04/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D94C6D-4D98-2C49-8EFC-BBE3D528F6F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C2A97-AF07-8B42-BD51-BE0F82CA05BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24660" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Categorie</t>
   </si>
@@ -49,13 +49,160 @@
     <t>Mauvaise indentation</t>
   </si>
   <si>
-    <t>Bien indenter son code html</t>
-  </si>
-  <si>
-    <t>lang="Default"</t>
-  </si>
-  <si>
-    <t>Indiquer que le site est en français pour Google</t>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta keywords </t>
+  </si>
+  <si>
+    <t>Meta description</t>
+  </si>
+  <si>
+    <t>Lang="Default"</t>
+  </si>
+  <si>
+    <t>Taille des images</t>
+  </si>
+  <si>
+    <t>Image trop lourde sans nécessité, temps de chargement plus long.</t>
+  </si>
+  <si>
+    <t>Réduire la taille des images à la taille du conteneur pour optimiser le temps de chargement.</t>
+  </si>
+  <si>
+    <t>Toujours utiliser des mots-clés pertinents.</t>
+  </si>
+  <si>
+    <t>Toujours mettre une description dans la meta.</t>
+  </si>
+  <si>
+    <t>Sur un site avec une seule langue, indiquer la langue utilisée.</t>
+  </si>
+  <si>
+    <t>Adapter la taille de l'image à son conteneur.</t>
+  </si>
+  <si>
+    <t>Intégrer une description précise pour le référencement Google.</t>
+  </si>
+  <si>
+    <t>Indiquer que le site est en français pour Google.</t>
+  </si>
+  <si>
+    <t>Intégrer des keywords pertinents et éviter les répétitions.</t>
+  </si>
+  <si>
+    <t>Bien indenter son code html.</t>
+  </si>
+  <si>
+    <t>Fraude / Blackhat</t>
+  </si>
+  <si>
+    <t>Ne pas mettre de mots-clés blanc sur fond blanc.</t>
+  </si>
+  <si>
+    <t>Perçu comme de la fraude par Google et peut entraîner un déclassement ou une disparition totale du site.</t>
+  </si>
+  <si>
+    <t>Ne pas essayer de "duper" les algorithmes mis à jour régulièrement.</t>
+  </si>
+  <si>
+    <t>Commentaires vides</t>
+  </si>
+  <si>
+    <t>Eviter de mettre des commentaires s'il n'y a pas de code.</t>
+  </si>
+  <si>
+    <t>Rend le fichier HTML / CSS plus lourd et accroît le temps de chargement du site web.</t>
+  </si>
+  <si>
+    <t>Ne pas mettre de commentaires si ce n'est pas nécessaire.</t>
+  </si>
+  <si>
+    <t>Utiliser les balises &lt;header&gt;, &lt;section&gt;, &lt;article&gt;, &lt;footer&gt;.</t>
+  </si>
+  <si>
+    <t>Code composé que de &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>Les balises &lt;div&gt; n'ajoutent aucune sémantique au site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours utiliser les balises citées pour améliorer son référencement grâce au code. </t>
+  </si>
+  <si>
+    <t>Style dans HTML</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser l'attribut -style- dans le code HTML.</t>
+  </si>
+  <si>
+    <t>N'apporte pas de poids SEO pour son site.</t>
+  </si>
+  <si>
+    <t>N'apporte pas de description et de référencement sur le site pour l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Alourdit le fichier HTML alors qu'un fichier style.css est prévu pour la mise en forme.</t>
+  </si>
+  <si>
+    <t>Toujours utiliser un fichier style.css dédié pour un site web.</t>
+  </si>
+  <si>
+    <t>Temps de chargement du site</t>
+  </si>
+  <si>
+    <t>Pour un code plus lisible et garder une meilleur maintenabilité.</t>
+  </si>
+  <si>
+    <t>Pas de problème, juste une meilleur pratique à adopter.</t>
+  </si>
+  <si>
+    <t>Pas de problème, meilleur optimisation.</t>
+  </si>
+  <si>
+    <t>Vérifier le temps de chargement de son site pour pouvoir l'optimiser.</t>
+  </si>
+  <si>
+    <t>Pas de problème, permet de détecter où il y a des ralentissements lors du chargement de la page.</t>
+  </si>
+  <si>
+    <t>Toujours effectuer cette vérification et suivre les optimisations possibles.</t>
+  </si>
+  <si>
+    <t>Image en guise de texte</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser des images à la place d'un &lt;p&gt;.</t>
+  </si>
+  <si>
+    <t>Une image n'aura pas de poids sémantique, perte de référencement pour Google.</t>
+  </si>
+  <si>
+    <t>Utiliser des images que pour des images mais pas pour du texte.</t>
+  </si>
+  <si>
+    <t>Balise "canonical"</t>
+  </si>
+  <si>
+    <t>Utiliser cette balise pour indiquer à Google quelle page indexer.</t>
+  </si>
+  <si>
+    <t>Utiliser la balise "canonical" quand il y a plusieurs pages.</t>
+  </si>
+  <si>
+    <t>Perte de budget de crawlabilité si Googlebot passe plusieurs fois sur la même page.</t>
+  </si>
+  <si>
+    <t>Fichiers minifier</t>
+  </si>
+  <si>
+    <t>Toujours minifier ses fichiers pour un chargement plus rapide.</t>
+  </si>
+  <si>
+    <t>Un fichier normal sera plus volumineux et donc plus long à charger.</t>
+  </si>
+  <si>
+    <t>Une fois un fichier prêt pour utilisation, minifier-le si possible pour gagner en rapidité de chargement.</t>
   </si>
 </sst>
 </file>
@@ -343,16 +490,16 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
@@ -411,7 +558,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -419,39 +572,221 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Annexes/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Annexes/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robin/Desktop/Projet04/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C2A97-AF07-8B42-BD51-BE0F82CA05BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30782332-8274-ED45-B87D-8D4A7FEE62E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="24660" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
